--- a/natmiOut/OldD2/LR-pairs_lrc2p/Hp-Cd163.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Hp-Cd163.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Hp</t>
   </si>
   <si>
     <t>Cd163</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.72446265264728</v>
+        <v>3.891034666666667</v>
       </c>
       <c r="H2">
-        <v>3.72446265264728</v>
+        <v>11.673104</v>
       </c>
       <c r="I2">
-        <v>0.4519082248506006</v>
+        <v>0.1847044466412152</v>
       </c>
       <c r="J2">
-        <v>0.4519082248506006</v>
+        <v>0.1847044466412152</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.82946285931479</v>
+        <v>4.945352666666667</v>
       </c>
       <c r="N2">
-        <v>4.82946285931479</v>
+        <v>14.836058</v>
       </c>
       <c r="O2">
-        <v>0.4540903751008417</v>
+        <v>0.4553334752996751</v>
       </c>
       <c r="P2">
-        <v>0.4540903751008417</v>
+        <v>0.4643150580045728</v>
       </c>
       <c r="Q2">
-        <v>17.98715405186508</v>
+        <v>19.24253866489244</v>
       </c>
       <c r="R2">
-        <v>17.98715405186508</v>
+        <v>173.182847984032</v>
       </c>
       <c r="S2">
-        <v>0.2052071753335647</v>
+        <v>0.08410211759244793</v>
       </c>
       <c r="T2">
-        <v>0.2052071753335647</v>
+        <v>0.08576105585591838</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.72446265264728</v>
+        <v>3.891034666666667</v>
       </c>
       <c r="H3">
-        <v>3.72446265264728</v>
+        <v>11.673104</v>
       </c>
       <c r="I3">
-        <v>0.4519082248506006</v>
+        <v>0.1847044466412152</v>
       </c>
       <c r="J3">
-        <v>0.4519082248506006</v>
+        <v>0.1847044466412152</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.17895222050491</v>
+        <v>5.271479666666667</v>
       </c>
       <c r="N3">
-        <v>5.17895222050491</v>
+        <v>15.814439</v>
       </c>
       <c r="O3">
-        <v>0.486951121676516</v>
+        <v>0.4853609678382707</v>
       </c>
       <c r="P3">
-        <v>0.486951121676516</v>
+        <v>0.494934851400202</v>
       </c>
       <c r="Q3">
-        <v>19.28881412511524</v>
+        <v>20.51151012762844</v>
       </c>
       <c r="R3">
-        <v>19.28881412511524</v>
+        <v>184.603591148656</v>
       </c>
       <c r="S3">
-        <v>0.2200572169858431</v>
+        <v>0.08964832898581246</v>
       </c>
       <c r="T3">
-        <v>0.2200572169858431</v>
+        <v>0.09141666785132642</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.72446265264728</v>
+        <v>3.891034666666667</v>
       </c>
       <c r="H4">
-        <v>3.72446265264728</v>
+        <v>11.673104</v>
       </c>
       <c r="I4">
-        <v>0.4519082248506006</v>
+        <v>0.1847044466412152</v>
       </c>
       <c r="J4">
-        <v>0.4519082248506006</v>
+        <v>0.1847044466412152</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.627051171237244</v>
+        <v>0.013841</v>
       </c>
       <c r="N4">
-        <v>0.627051171237244</v>
+        <v>0.041523</v>
       </c>
       <c r="O4">
-        <v>0.05895850322264227</v>
+        <v>0.001274382446797418</v>
       </c>
       <c r="P4">
-        <v>0.05895850322264227</v>
+        <v>0.001299520004136131</v>
       </c>
       <c r="Q4">
-        <v>2.33542866857185</v>
+        <v>0.05385581082133333</v>
       </c>
       <c r="R4">
-        <v>2.33542866857185</v>
+        <v>0.484702297392</v>
       </c>
       <c r="S4">
-        <v>0.02664383253119268</v>
+        <v>0.000235384104644995</v>
       </c>
       <c r="T4">
-        <v>0.02664383253119268</v>
+        <v>0.0002400271232631538</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.51717236932776</v>
+        <v>3.891034666666667</v>
       </c>
       <c r="H5">
-        <v>4.51717236932776</v>
+        <v>11.673104</v>
       </c>
       <c r="I5">
-        <v>0.5480917751493996</v>
+        <v>0.1847044466412152</v>
       </c>
       <c r="J5">
-        <v>0.5480917751493996</v>
+        <v>0.1847044466412152</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.82946285931479</v>
+        <v>0.6302734999999999</v>
       </c>
       <c r="N5">
-        <v>4.82946285931479</v>
+        <v>1.260547</v>
       </c>
       <c r="O5">
-        <v>0.4540903751008417</v>
+        <v>0.05803117441525701</v>
       </c>
       <c r="P5">
-        <v>0.4540903751008417</v>
+        <v>0.03945057059108897</v>
       </c>
       <c r="Q5">
-        <v>21.81551618679141</v>
+        <v>2.452416037981333</v>
       </c>
       <c r="R5">
-        <v>21.81551618679141</v>
+        <v>14.714496227888</v>
       </c>
       <c r="S5">
-        <v>0.248883199767277</v>
+        <v>0.01071861595830989</v>
       </c>
       <c r="T5">
-        <v>0.248883199767277</v>
+        <v>0.007286695810707287</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>4.51717236932776</v>
+        <v>9.975766999999999</v>
       </c>
       <c r="H6">
-        <v>4.51717236932776</v>
+        <v>29.927301</v>
       </c>
       <c r="I6">
-        <v>0.5480917751493996</v>
+        <v>0.4735420476567404</v>
       </c>
       <c r="J6">
-        <v>0.5480917751493996</v>
+        <v>0.4735420476567405</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.17895222050491</v>
+        <v>4.945352666666667</v>
       </c>
       <c r="N6">
-        <v>5.17895222050491</v>
+        <v>14.836058</v>
       </c>
       <c r="O6">
-        <v>0.486951121676516</v>
+        <v>0.4553334752996751</v>
       </c>
       <c r="P6">
-        <v>0.486951121676516</v>
+        <v>0.4643150580045728</v>
       </c>
       <c r="Q6">
-        <v>23.39421987253343</v>
+        <v>49.33368593549533</v>
       </c>
       <c r="R6">
-        <v>23.39421987253343</v>
+        <v>444.003173419458</v>
       </c>
       <c r="S6">
-        <v>0.2668939046906729</v>
+        <v>0.215619546260068</v>
       </c>
       <c r="T6">
-        <v>0.2668939046906729</v>
+        <v>0.2198727033253436</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,681 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>9.975766999999999</v>
+      </c>
+      <c r="H7">
+        <v>29.927301</v>
+      </c>
+      <c r="I7">
+        <v>0.4735420476567404</v>
+      </c>
+      <c r="J7">
+        <v>0.4735420476567405</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.271479666666667</v>
+      </c>
+      <c r="N7">
+        <v>15.814439</v>
+      </c>
+      <c r="O7">
+        <v>0.4853609678382707</v>
+      </c>
+      <c r="P7">
+        <v>0.494934851400202</v>
+      </c>
+      <c r="Q7">
+        <v>52.58705289990434</v>
+      </c>
+      <c r="R7">
+        <v>473.283476099139</v>
+      </c>
+      <c r="S7">
+        <v>0.229838826562792</v>
+      </c>
+      <c r="T7">
+        <v>0.2343724629887362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>9.975766999999999</v>
+      </c>
+      <c r="H8">
+        <v>29.927301</v>
+      </c>
+      <c r="I8">
+        <v>0.4735420476567404</v>
+      </c>
+      <c r="J8">
+        <v>0.4735420476567405</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.013841</v>
+      </c>
+      <c r="N8">
+        <v>0.041523</v>
+      </c>
+      <c r="O8">
+        <v>0.001274382446797418</v>
+      </c>
+      <c r="P8">
+        <v>0.001299520004136131</v>
+      </c>
+      <c r="Q8">
+        <v>0.138074591047</v>
+      </c>
+      <c r="R8">
+        <v>1.242671319423</v>
+      </c>
+      <c r="S8">
+        <v>0.0006034736733542563</v>
+      </c>
+      <c r="T8">
+        <v>0.0006153773637295191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>4.51717236932776</v>
-      </c>
-      <c r="H7">
-        <v>4.51717236932776</v>
-      </c>
-      <c r="I7">
-        <v>0.5480917751493996</v>
-      </c>
-      <c r="J7">
-        <v>0.5480917751493996</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.627051171237244</v>
-      </c>
-      <c r="N7">
-        <v>0.627051171237244</v>
-      </c>
-      <c r="O7">
-        <v>0.05895850322264227</v>
-      </c>
-      <c r="P7">
-        <v>0.05895850322264227</v>
-      </c>
-      <c r="Q7">
-        <v>2.832498224867488</v>
-      </c>
-      <c r="R7">
-        <v>2.832498224867488</v>
-      </c>
-      <c r="S7">
-        <v>0.0323146706914496</v>
-      </c>
-      <c r="T7">
-        <v>0.0323146706914496</v>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>9.975766999999999</v>
+      </c>
+      <c r="H9">
+        <v>29.927301</v>
+      </c>
+      <c r="I9">
+        <v>0.4735420476567404</v>
+      </c>
+      <c r="J9">
+        <v>0.4735420476567405</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6302734999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.260547</v>
+      </c>
+      <c r="O9">
+        <v>0.05803117441525701</v>
+      </c>
+      <c r="P9">
+        <v>0.03945057059108897</v>
+      </c>
+      <c r="Q9">
+        <v>6.287461582274499</v>
+      </c>
+      <c r="R9">
+        <v>37.724769493647</v>
+      </c>
+      <c r="S9">
+        <v>0.02748020116052625</v>
+      </c>
+      <c r="T9">
+        <v>0.01868150397893106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.184249666666666</v>
+      </c>
+      <c r="H10">
+        <v>21.552749</v>
+      </c>
+      <c r="I10">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="J10">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.945352666666667</v>
+      </c>
+      <c r="N10">
+        <v>14.836058</v>
+      </c>
+      <c r="O10">
+        <v>0.4553334752996751</v>
+      </c>
+      <c r="P10">
+        <v>0.4643150580045728</v>
+      </c>
+      <c r="Q10">
+        <v>35.52864824704911</v>
+      </c>
+      <c r="R10">
+        <v>319.757834223442</v>
+      </c>
+      <c r="S10">
+        <v>0.1552827620518514</v>
+      </c>
+      <c r="T10">
+        <v>0.1583457588348043</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.184249666666666</v>
+      </c>
+      <c r="H11">
+        <v>21.552749</v>
+      </c>
+      <c r="I11">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="J11">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.271479666666667</v>
+      </c>
+      <c r="N11">
+        <v>15.814439</v>
+      </c>
+      <c r="O11">
+        <v>0.4853609678382707</v>
+      </c>
+      <c r="P11">
+        <v>0.494934851400202</v>
+      </c>
+      <c r="Q11">
+        <v>37.87162603809011</v>
+      </c>
+      <c r="R11">
+        <v>340.844634342811</v>
+      </c>
+      <c r="S11">
+        <v>0.1655230633514994</v>
+      </c>
+      <c r="T11">
+        <v>0.1687880529991001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.184249666666666</v>
+      </c>
+      <c r="H12">
+        <v>21.552749</v>
+      </c>
+      <c r="I12">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="J12">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.013841</v>
+      </c>
+      <c r="N12">
+        <v>0.041523</v>
+      </c>
+      <c r="O12">
+        <v>0.001274382446797418</v>
+      </c>
+      <c r="P12">
+        <v>0.001299520004136131</v>
+      </c>
+      <c r="Q12">
+        <v>0.09943719963633332</v>
+      </c>
+      <c r="R12">
+        <v>0.8949347967269999</v>
+      </c>
+      <c r="S12">
+        <v>0.0004346037288799373</v>
+      </c>
+      <c r="T12">
+        <v>0.0004431764114226014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.184249666666666</v>
+      </c>
+      <c r="H13">
+        <v>21.552749</v>
+      </c>
+      <c r="I13">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="J13">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6302734999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.260547</v>
+      </c>
+      <c r="O13">
+        <v>0.05803117441525701</v>
+      </c>
+      <c r="P13">
+        <v>0.03945057059108897</v>
+      </c>
+      <c r="Q13">
+        <v>4.528042182283833</v>
+      </c>
+      <c r="R13">
+        <v>27.16825309370299</v>
+      </c>
+      <c r="S13">
+        <v>0.01979042072929767</v>
+      </c>
+      <c r="T13">
+        <v>0.01345386161620128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01522366666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.045671</v>
+      </c>
+      <c r="I14">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="J14">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.945352666666667</v>
+      </c>
+      <c r="N14">
+        <v>14.836058</v>
+      </c>
+      <c r="O14">
+        <v>0.4553334752996751</v>
+      </c>
+      <c r="P14">
+        <v>0.4643150580045728</v>
+      </c>
+      <c r="Q14">
+        <v>0.07528640054644445</v>
+      </c>
+      <c r="R14">
+        <v>0.677577604918</v>
+      </c>
+      <c r="S14">
+        <v>0.0003290493953077682</v>
+      </c>
+      <c r="T14">
+        <v>0.0003355399885065402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01522366666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.045671</v>
+      </c>
+      <c r="I15">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="J15">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.271479666666667</v>
+      </c>
+      <c r="N15">
+        <v>15.814439</v>
+      </c>
+      <c r="O15">
+        <v>0.4853609678382707</v>
+      </c>
+      <c r="P15">
+        <v>0.494934851400202</v>
+      </c>
+      <c r="Q15">
+        <v>0.08025124928544446</v>
+      </c>
+      <c r="R15">
+        <v>0.722261243569</v>
+      </c>
+      <c r="S15">
+        <v>0.0003507489381668356</v>
+      </c>
+      <c r="T15">
+        <v>0.0003576675610392856</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01522366666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.045671</v>
+      </c>
+      <c r="I16">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="J16">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.013841</v>
+      </c>
+      <c r="N16">
+        <v>0.041523</v>
+      </c>
+      <c r="O16">
+        <v>0.001274382446797418</v>
+      </c>
+      <c r="P16">
+        <v>0.001299520004136131</v>
+      </c>
+      <c r="Q16">
+        <v>0.0002107107703333334</v>
+      </c>
+      <c r="R16">
+        <v>0.001896396933</v>
+      </c>
+      <c r="S16">
+        <v>9.209399182292532E-07</v>
+      </c>
+      <c r="T16">
+        <v>9.391057208563803E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.01522366666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.045671</v>
+      </c>
+      <c r="I17">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="J17">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6302734999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.260547</v>
+      </c>
+      <c r="O17">
+        <v>0.05803117441525701</v>
+      </c>
+      <c r="P17">
+        <v>0.03945057059108897</v>
+      </c>
+      <c r="Q17">
+        <v>0.009595073672833333</v>
+      </c>
+      <c r="R17">
+        <v>0.057570442037</v>
+      </c>
+      <c r="S17">
+        <v>4.193656712318945E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.850918524934007E-05</v>
       </c>
     </row>
   </sheetData>
